--- a/coffee_data/finalOutput.xlsx
+++ b/coffee_data/finalOutput.xlsx
@@ -348,1562 +348,1562 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>15236.60182879</v>
+        <v>12046.83536191</v>
       </c>
       <c r="B1">
-        <v>5421.74782843</v>
+        <v>6605.54089868</v>
       </c>
       <c r="C1">
-        <v>15289.13340982</v>
+        <v>2190.44476259</v>
       </c>
       <c r="D1">
-        <v>5981.27024966</v>
+        <v>45961.46840946</v>
       </c>
       <c r="E1">
-        <v>6433.28617948</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>19688.34790513</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>14032.69105128</v>
+        <v>12466.81136315</v>
       </c>
       <c r="B2">
-        <v>5143.80415605</v>
+        <v>6492.13227055</v>
       </c>
       <c r="C2">
-        <v>15706.73197375</v>
+        <v>2401.67104443</v>
       </c>
       <c r="D2">
-        <v>6090.21495656</v>
+        <v>47257.85567405</v>
       </c>
       <c r="E2">
-        <v>6900.19510921</v>
+        <v>2588.49499466</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>19370.69378717</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>13260.48094771</v>
+        <v>11765.84272837</v>
       </c>
       <c r="B3">
-        <v>5250.23340608</v>
+        <v>6307.87994265</v>
       </c>
       <c r="C3">
-        <v>15615.16946446</v>
+        <v>1983.56224703</v>
       </c>
       <c r="D3">
-        <v>6057.08471601</v>
+        <v>45852.46062729</v>
       </c>
       <c r="E3">
-        <v>6641.00693561</v>
+        <v>3186.87267785</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>18316.9180423</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>15142.11134669</v>
+        <v>13119.59447607</v>
       </c>
       <c r="B4">
-        <v>5756.84174855</v>
+        <v>7049.71645698</v>
       </c>
       <c r="C4">
-        <v>15882.22684135</v>
+        <v>2197.07241182</v>
       </c>
       <c r="D4">
-        <v>5781.27952431</v>
+        <v>47096.24871749</v>
       </c>
       <c r="E4">
-        <v>6526.0498334</v>
+        <v>2433.30424423</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>18285.27479178</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12932.2722524</v>
+        <v>12535.26508229</v>
       </c>
       <c r="B5">
-        <v>4896.42176463</v>
+        <v>7293.82518173</v>
       </c>
       <c r="C5">
-        <v>15700.68832251</v>
+        <v>2141.00295307</v>
       </c>
       <c r="D5">
-        <v>6135.88760226</v>
+        <v>44662.12506791</v>
       </c>
       <c r="E5">
-        <v>6797.5662191</v>
+        <v>2813.31569054</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18781.0385977</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>14967.07070072</v>
+        <v>11672.71175209</v>
       </c>
       <c r="B6">
-        <v>5457.70810471</v>
+        <v>7410.14921878</v>
       </c>
       <c r="C6">
-        <v>16017.9107697</v>
+        <v>1986.97576422</v>
       </c>
       <c r="D6">
-        <v>5492.24275487</v>
+        <v>43881.20654226</v>
       </c>
       <c r="E6">
-        <v>5972.02771594</v>
+        <v>2797.30666248</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>18229.36175992</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18062.91823061</v>
+        <v>11788.38586127</v>
       </c>
       <c r="B7">
-        <v>5611.07509003</v>
+        <v>6752.09340613</v>
       </c>
       <c r="C7">
-        <v>21462.46905629</v>
+        <v>2432.67669078</v>
       </c>
       <c r="D7">
-        <v>6555.51347152</v>
+        <v>40603.37181961</v>
       </c>
       <c r="E7">
-        <v>7229.65444292</v>
+        <v>3470.06319353</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>21547.93859307</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>15809.946135</v>
+        <v>12301.91910766</v>
       </c>
       <c r="B8">
-        <v>5830.1227928</v>
+        <v>6267.43494562</v>
       </c>
       <c r="C8">
-        <v>23130.95394275</v>
+        <v>2896.00178684</v>
       </c>
       <c r="D8">
-        <v>6959.93409319</v>
+        <v>46476.85792671</v>
       </c>
       <c r="E8">
-        <v>8473.055319290001</v>
+        <v>3691.21105262</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>19764.81511995</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>15460.66968861</v>
+        <v>13168.6596123</v>
       </c>
       <c r="B9">
-        <v>5484.84359714</v>
+        <v>5871.22351927</v>
       </c>
       <c r="C9">
-        <v>24178.84555196</v>
+        <v>2756.10380715</v>
       </c>
       <c r="D9">
-        <v>7177.03441757</v>
+        <v>51221.06185829</v>
       </c>
       <c r="E9">
-        <v>9236.99762848</v>
+        <v>3892.25779913</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>21786.13589254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>16610</v>
+        <v>12632</v>
       </c>
       <c r="B10">
-        <v>4932</v>
+        <v>6499</v>
       </c>
       <c r="C10">
-        <v>22013</v>
+        <v>2699</v>
       </c>
       <c r="D10">
-        <v>6684</v>
+        <v>41879</v>
       </c>
       <c r="E10">
-        <v>7738</v>
+        <v>3556</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>20193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>16149.28524231</v>
+        <v>12744.37155582</v>
       </c>
       <c r="B11">
-        <v>5689.34073595</v>
+        <v>6612.2161563</v>
       </c>
       <c r="C11">
-        <v>22700.45919031</v>
+        <v>2634.12648004</v>
       </c>
       <c r="D11">
-        <v>6865.69651278</v>
+        <v>41471.45554826</v>
       </c>
       <c r="E11">
-        <v>8034.80999371</v>
+        <v>3344.9060919</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>20422.23982305</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>15535.3806088</v>
+        <v>11674.88522705</v>
       </c>
       <c r="B12">
-        <v>6062.63817746</v>
+        <v>6159.150562</v>
       </c>
       <c r="C12">
-        <v>21015.83117627</v>
+        <v>2923.39126085</v>
       </c>
       <c r="D12">
-        <v>6940.58954654</v>
+        <v>48890.26826059</v>
       </c>
       <c r="E12">
-        <v>7484.37975622</v>
+        <v>3163.11557085</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>19522.48363478</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>13284.99059873</v>
+        <v>11320.43867352</v>
       </c>
       <c r="B13">
-        <v>3965.96223552</v>
+        <v>7499.45275267</v>
       </c>
       <c r="C13">
-        <v>17682.19593979</v>
+        <v>2143.92939931</v>
       </c>
       <c r="D13">
-        <v>5319.89358111</v>
+        <v>41121.67163041</v>
       </c>
       <c r="E13">
-        <v>7655.48658288</v>
+        <v>3602.29283598</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>23009.46119792</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12169.90416601</v>
+        <v>10332.67968285</v>
       </c>
       <c r="B14">
-        <v>4060.77541275</v>
+        <v>6281.84192789</v>
       </c>
       <c r="C14">
-        <v>18609.50641125</v>
+        <v>2140.32304563</v>
       </c>
       <c r="D14">
-        <v>5545.21304451</v>
+        <v>43689.67024831</v>
       </c>
       <c r="E14">
-        <v>7592.3705484</v>
+        <v>3762.64567917</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>22117.49960965</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>12582.98979986</v>
+        <v>10055.87287605</v>
       </c>
       <c r="B15">
-        <v>2915.80546591</v>
+        <v>6846.30610275</v>
       </c>
       <c r="C15">
-        <v>16258.21314339</v>
+        <v>1851.08107669</v>
       </c>
       <c r="D15">
-        <v>5607.12084975</v>
+        <v>43993.64208241</v>
       </c>
       <c r="E15">
-        <v>7832.77966337</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>22307.90015492</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>15401.45055797</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>3419.75748003</v>
+        <v>7037.79639271</v>
       </c>
       <c r="C16">
-        <v>16483.63717233</v>
+        <v>1822.75582065</v>
       </c>
       <c r="D16">
-        <v>5234.15203545</v>
+        <v>45097.08126386</v>
       </c>
       <c r="E16">
-        <v>7219.3552949</v>
+        <v>3738.68002532</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>21434.70065634</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>15236.18998448</v>
+        <v>11216.75290878</v>
       </c>
       <c r="B17">
-        <v>3928.88201993</v>
+        <v>7151.43460481</v>
       </c>
       <c r="C17">
-        <v>18353.69870466</v>
+        <v>2245.76538324</v>
       </c>
       <c r="D17">
-        <v>5784.65696297</v>
+        <v>42537.93560055</v>
       </c>
       <c r="E17">
-        <v>8257.41368602</v>
+        <v>3699.47587863</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>23389.76720655</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>13002.50138266</v>
+        <v>10621.15408232</v>
       </c>
       <c r="B18">
-        <v>2907.659566</v>
+        <v>6702.77775324</v>
       </c>
       <c r="C18">
-        <v>18644.02653466</v>
+        <v>2036.22450319</v>
       </c>
       <c r="D18">
-        <v>6145.65095212</v>
+        <v>46570.62373125</v>
       </c>
       <c r="E18">
-        <v>8116.54864014</v>
+        <v>3941.79537603</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>22158.1161585</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>14446.55922826</v>
+        <v>12328.73902726</v>
       </c>
       <c r="B19">
-        <v>3901.00647414</v>
+        <v>7097.21888788</v>
       </c>
       <c r="C19">
-        <v>19832.79025895</v>
+        <v>2769.8979577</v>
       </c>
       <c r="D19">
-        <v>6030.28674117</v>
+        <v>51498.09868638</v>
       </c>
       <c r="E19">
-        <v>7916.61360851</v>
+        <v>3680.9732065</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>20853.88214158</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>13858.08775131</v>
+        <v>11799.95590706</v>
       </c>
       <c r="B20">
-        <v>2793.43022964</v>
+        <v>6706.81254546</v>
       </c>
       <c r="C20">
-        <v>22153.942262</v>
+        <v>2875.52095847</v>
       </c>
       <c r="D20">
-        <v>6326.84974345</v>
+        <v>51773.44994879</v>
       </c>
       <c r="E20">
-        <v>7523.02893498</v>
+        <v>4003.68211754</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>21791.57033044</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>13285.11899286</v>
+        <v>10534.92177231</v>
       </c>
       <c r="B21">
-        <v>2627.34453622</v>
+        <v>6735.00310048</v>
       </c>
       <c r="C21">
-        <v>20440.98376442</v>
+        <v>2433.94278564</v>
       </c>
       <c r="D21">
-        <v>5960.17973494</v>
+        <v>42218.75069796</v>
       </c>
       <c r="E21">
-        <v>6642.55949643</v>
+        <v>4169.69308804</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>21912.78324999</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>15493.76945289</v>
+        <v>12048.56113746</v>
       </c>
       <c r="B22">
-        <v>3879.69810628</v>
+        <v>7396.56311497</v>
       </c>
       <c r="C22">
-        <v>21043.18225282</v>
+        <v>2307.80048597</v>
       </c>
       <c r="D22">
-        <v>6584.45392474</v>
+        <v>51514.33800402</v>
       </c>
       <c r="E22">
-        <v>7657.02950792</v>
+        <v>4023.0114928</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>21512.93168639</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>14035.81563195</v>
+        <v>11894.06624606</v>
       </c>
       <c r="B23">
-        <v>2816.73910511</v>
+        <v>7232.19953479</v>
       </c>
       <c r="C23">
-        <v>22487.20074955</v>
+        <v>2457.05600213</v>
       </c>
       <c r="D23">
-        <v>6699.68169402</v>
+        <v>49937.56119921</v>
       </c>
       <c r="E23">
-        <v>7733.18671393</v>
+        <v>4260.14272613</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>20625.72391143</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>14431.98739332</v>
+        <v>11746.01410947</v>
       </c>
       <c r="B24">
-        <v>4183.13238333</v>
+        <v>6984.73501034</v>
       </c>
       <c r="C24">
-        <v>20689.22111961</v>
+        <v>2526.982937</v>
       </c>
       <c r="D24">
-        <v>6728.1824052</v>
+        <v>52117.51748532</v>
       </c>
       <c r="E24">
-        <v>7696.57815418</v>
+        <v>4490.2728261</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>19829.22787984</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>14619.67812057</v>
+        <v>11535.34818763</v>
       </c>
       <c r="B25">
-        <v>3506.48043192</v>
+        <v>7293.25049054</v>
       </c>
       <c r="C25">
-        <v>28109.04542002</v>
+        <v>2529.47087601</v>
       </c>
       <c r="D25">
-        <v>5398.72142194</v>
+        <v>57676.74093814</v>
       </c>
       <c r="E25">
-        <v>10529.7376494</v>
+        <v>4596.7498778</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>18939.57048956</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>13461.85138798</v>
+        <v>10855.10010503</v>
       </c>
       <c r="B26">
-        <v>2222.62282048</v>
+        <v>6111.34499625</v>
       </c>
       <c r="C26">
-        <v>27371.46697769</v>
+        <v>2528.07436895</v>
       </c>
       <c r="D26">
-        <v>4806.23383461</v>
+        <v>47435.23706098</v>
       </c>
       <c r="E26">
-        <v>10047.5047231</v>
+        <v>4475.32799044</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>19892.53209399</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>14586.91395453</v>
+        <v>10177.02669157</v>
       </c>
       <c r="B27">
-        <v>2558.44397776</v>
+        <v>6347.63665277</v>
       </c>
       <c r="C27">
-        <v>28751.75558925</v>
+        <v>2863.47103241</v>
       </c>
       <c r="D27">
-        <v>5293.04699096</v>
+        <v>47574.76232211</v>
       </c>
       <c r="E27">
-        <v>10483.23602162</v>
+        <v>4558.85396407</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>18969.60888316</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>15234.20763982</v>
+        <v>11465.05943031</v>
       </c>
       <c r="B28">
-        <v>3554.83743586</v>
+        <v>6533.64379759</v>
       </c>
       <c r="C28">
-        <v>22894.96735806</v>
+        <v>2515.03331188</v>
       </c>
       <c r="D28">
-        <v>8267.406617189999</v>
+        <v>46339.8856432</v>
       </c>
       <c r="E28">
-        <v>7556.43913001</v>
+        <v>4387.13430282</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>19818.64392473</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>14167.87395471</v>
+        <v>11509.80783574</v>
       </c>
       <c r="B29">
-        <v>3481.26884916</v>
+        <v>6087.30670569</v>
       </c>
       <c r="C29">
-        <v>22634.6065294</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>5127.67430954</v>
+        <v>47015.05030963</v>
       </c>
       <c r="E29">
-        <v>7931.41956335</v>
+        <v>4451.3068978</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>21129.25546942</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>15250.93982986</v>
+        <v>10515.01512436</v>
       </c>
       <c r="B30">
-        <v>2846.07997137</v>
+        <v>6526.93067912</v>
       </c>
       <c r="C30">
-        <v>21692.1308613</v>
+        <v>2203.03261382</v>
       </c>
       <c r="D30">
-        <v>5338.48389609</v>
+        <v>54630.44550906</v>
       </c>
       <c r="E30">
-        <v>7820.17036485</v>
+        <v>4682.3374257</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>19117.55977423</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>16599.42355966</v>
+        <v>12489.36193627</v>
       </c>
       <c r="B31">
-        <v>3590.81505612</v>
+        <v>5371.40265045</v>
       </c>
       <c r="C31">
-        <v>28512.45473944</v>
+        <v>2858.60055217</v>
       </c>
       <c r="D31">
-        <v>6609.69044724</v>
+        <v>56048.9893979</v>
       </c>
       <c r="E31">
-        <v>9191.6522363</v>
+        <v>4189.10127</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>23538.44586775</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>15485.711881</v>
+        <v>12450.56123469</v>
       </c>
       <c r="B32">
-        <v>3390.65877472</v>
+        <v>5930.31996705</v>
       </c>
       <c r="C32">
-        <v>30789.22584618</v>
+        <v>3316.22426033</v>
       </c>
       <c r="D32">
-        <v>6435.80808714</v>
+        <v>48937.91580156</v>
       </c>
       <c r="E32">
-        <v>9914.23293106</v>
+        <v>4388.30346007</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>21820.42234412</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>15355.2671246</v>
+        <v>12903.74977815</v>
       </c>
       <c r="B33">
-        <v>2256.40594715</v>
+        <v>5855.63740711</v>
       </c>
       <c r="C33">
-        <v>32180.75602859</v>
+        <v>2973.72726809</v>
       </c>
       <c r="D33">
-        <v>6492.6187401</v>
+        <v>52433.31927552</v>
       </c>
       <c r="E33">
-        <v>10775.88781171</v>
+        <v>5035.02181595</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>23298.59650417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>17143.86740369</v>
+        <v>12294.63472913</v>
       </c>
       <c r="B34">
-        <v>3188.59922091</v>
+        <v>6107.28832126</v>
       </c>
       <c r="C34">
-        <v>27816.75403553</v>
+        <v>3067.36840405</v>
       </c>
       <c r="D34">
-        <v>6462.97496319</v>
+        <v>47085.5917952</v>
       </c>
       <c r="E34">
-        <v>8489.58824134</v>
+        <v>4095.54297349</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>21667.14929706</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>15762.94396224</v>
+        <v>12859.45082565</v>
       </c>
       <c r="B35">
-        <v>2970.93780876</v>
+        <v>6163.31895778</v>
       </c>
       <c r="C35">
-        <v>30011.75503444</v>
+        <v>3199.12561624</v>
       </c>
       <c r="D35">
-        <v>7007.50143768</v>
+        <v>61073.39879887</v>
       </c>
       <c r="E35">
-        <v>10153.79539406</v>
+        <v>4862.76086292</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>22670.40246955</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>15090.39278326</v>
+        <v>12406.31708354</v>
       </c>
       <c r="B36">
-        <v>2950.62898596</v>
+        <v>5878.07942529</v>
       </c>
       <c r="C36">
-        <v>30448.49778009</v>
+        <v>3025.95926251</v>
       </c>
       <c r="D36">
-        <v>6713.66603129</v>
+        <v>59243.20625815</v>
       </c>
       <c r="E36">
-        <v>11141.92736489</v>
+        <v>4735.37707645</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>22923.58261676</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>13965.31720476</v>
+        <v>11015.28388426</v>
       </c>
       <c r="B37">
-        <v>2882.14801599</v>
+        <v>5561.83108871</v>
       </c>
       <c r="C37">
-        <v>22044.85941157</v>
+        <v>2461.73551614</v>
       </c>
       <c r="D37">
-        <v>5684.50102493</v>
+        <v>52898.13482574</v>
       </c>
       <c r="E37">
-        <v>7391.16139969</v>
+        <v>4055.25371672</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>18262.33788315</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>12375.24450312</v>
+        <v>11265.95840207</v>
       </c>
       <c r="B38">
-        <v>1921.13724753</v>
+        <v>5402.58901082</v>
       </c>
       <c r="C38">
-        <v>23681.42976381</v>
+        <v>2761.02529547</v>
       </c>
       <c r="D38">
-        <v>5320.91629789</v>
+        <v>52082.81093779</v>
       </c>
       <c r="E38">
-        <v>7585.81033717</v>
+        <v>4774.80621737</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>18567.74273755</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>12886.24737413</v>
+        <v>9839.62625411</v>
       </c>
       <c r="B39">
-        <v>1859.29779795</v>
+        <v>6071.76937144</v>
       </c>
       <c r="C39">
-        <v>19827.03636853</v>
+        <v>2522.43050442</v>
       </c>
       <c r="D39">
-        <v>5749.67634258</v>
+        <v>45569.21647878</v>
       </c>
       <c r="E39">
-        <v>6770.26915559</v>
+        <v>4940.02288573</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>18754.65604892</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>15084.08258535</v>
+        <v>0</v>
       </c>
       <c r="B40">
-        <v>2212.58711986</v>
+        <v>5719.73493707</v>
       </c>
       <c r="C40">
-        <v>21252.07261153</v>
+        <v>2607.05159828</v>
       </c>
       <c r="D40">
-        <v>5522.50269786</v>
+        <v>47580.78352561</v>
       </c>
       <c r="E40">
-        <v>6646.1287879</v>
+        <v>4596.10884703</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>18323.472696</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>13836.7677906</v>
+        <v>11185.68159994</v>
       </c>
       <c r="B41">
-        <v>1840.30557091</v>
+        <v>5161.8906905</v>
       </c>
       <c r="C41">
-        <v>22616.26174485</v>
+        <v>2788.99022568</v>
       </c>
       <c r="D41">
-        <v>5835.95610311</v>
+        <v>46813.66458099</v>
       </c>
       <c r="E41">
-        <v>7881.92889867</v>
+        <v>4694.68133045</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>19482.51143159</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>13227.08376205</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>1883.29816847</v>
+        <v>5478.79668348</v>
       </c>
       <c r="C42">
-        <v>23087.20681409</v>
+        <v>2892.77531782</v>
       </c>
       <c r="D42">
-        <v>5427.4673369</v>
+        <v>45332.36791884</v>
       </c>
       <c r="E42">
-        <v>8069.70655833</v>
+        <v>4974.0581088</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>18946.63952352</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>13996.22321533</v>
+        <v>9851.350326100001</v>
       </c>
       <c r="B43">
-        <v>3906.29441668</v>
+        <v>5956.47114735</v>
       </c>
       <c r="C43">
-        <v>24717.41467104</v>
+        <v>2608.38186502</v>
       </c>
       <c r="D43">
-        <v>4663.12469086</v>
+        <v>50802.37484505</v>
       </c>
       <c r="E43">
-        <v>7171.05246217</v>
+        <v>4094.64584238</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>16379.72489331</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>12242.66899488</v>
+        <v>9929.24371354</v>
       </c>
       <c r="B44">
-        <v>2744.74185921</v>
+        <v>5628.40126558</v>
       </c>
       <c r="C44">
-        <v>26348.40154562</v>
+        <v>2704.41095842</v>
       </c>
       <c r="D44">
-        <v>4937.17443818</v>
+        <v>49735.84279169</v>
       </c>
       <c r="E44">
-        <v>9322.039596119999</v>
+        <v>4215.69943519</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>17368.0543034</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>11671.54499269</v>
+        <v>10470.9384799</v>
       </c>
       <c r="B45">
-        <v>2692.19971857</v>
+        <v>5432.51534701</v>
       </c>
       <c r="C45">
-        <v>27529.17414355</v>
+        <v>2603.98721716</v>
       </c>
       <c r="D45">
-        <v>8149.91863742</v>
+        <v>47517.89784128</v>
       </c>
       <c r="E45">
-        <v>9317.302260070001</v>
+        <v>4136.82263139</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>17781.11992851</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>12345.69703936</v>
+        <v>10406.57631731</v>
       </c>
       <c r="B46">
-        <v>2737.24492225</v>
+        <v>5965.29035842</v>
       </c>
       <c r="C46">
-        <v>29138.41368847</v>
+        <v>2886.3198447</v>
       </c>
       <c r="D46">
-        <v>5285.279366</v>
+        <v>49896.5232748</v>
       </c>
       <c r="E46">
-        <v>8814.91483759</v>
+        <v>4317.43910024</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>17757.11672436</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>12603.56644858</v>
+        <v>10097.05632815</v>
       </c>
       <c r="B47">
-        <v>3314.46089776</v>
+        <v>5779.06002686</v>
       </c>
       <c r="C47">
-        <v>28045.43836563</v>
+        <v>2735.85637855</v>
       </c>
       <c r="D47">
-        <v>5206.27647867</v>
+        <v>48244.20779874</v>
       </c>
       <c r="E47">
-        <v>8753.576217149999</v>
+        <v>4534.53642317</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>18423.37327256</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>12191.62148304</v>
+        <v>9610.83594071</v>
       </c>
       <c r="B48">
-        <v>3649.83356807</v>
+        <v>5762.02757489</v>
       </c>
       <c r="C48">
-        <v>28057.80121316</v>
+        <v>2936.3499738</v>
       </c>
       <c r="D48">
-        <v>5750.25391822</v>
+        <v>47613.84494404</v>
       </c>
       <c r="E48">
-        <v>9380.07226995</v>
+        <v>4907.26010056</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>17290.79218734</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>13388.2853066</v>
+        <v>14454.07808043</v>
       </c>
       <c r="B49">
-        <v>9874.918172780001</v>
+        <v>7189.54884214</v>
       </c>
       <c r="C49">
-        <v>46861.67644439</v>
+        <v>3337.69877713</v>
       </c>
       <c r="D49">
-        <v>6002.71628596</v>
+        <v>53614.19669183</v>
       </c>
       <c r="E49">
-        <v>27961.26087235</v>
+        <v>4142.13131295</v>
       </c>
       <c r="F49">
-        <v>3637.62036173</v>
+        <v>16978.7751336</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>11765.42332185</v>
+        <v>14425.52742052</v>
       </c>
       <c r="B50">
-        <v>7644.78391425</v>
+        <v>7508.81816477</v>
       </c>
       <c r="C50">
-        <v>49198.76784976</v>
+        <v>3525.24100464</v>
       </c>
       <c r="D50">
-        <v>6288.4159134</v>
+        <v>55004.7246521</v>
       </c>
       <c r="E50">
-        <v>29450.83923592</v>
+        <v>4051.56003488</v>
       </c>
       <c r="F50">
-        <v>3819.10246319</v>
+        <v>16681.0237647</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>11957.71950001</v>
+        <v>13800.4216515</v>
       </c>
       <c r="B51">
-        <v>6891.13906131</v>
+        <v>7969.5450589</v>
       </c>
       <c r="C51">
-        <v>43953.83267329</v>
+        <v>3427.99298706</v>
       </c>
       <c r="D51">
-        <v>6489.71348493</v>
+        <v>50503.64659762</v>
       </c>
       <c r="E51">
-        <v>25959.98791026</v>
+        <v>4076.62414438</v>
       </c>
       <c r="F51">
-        <v>3253.36152162</v>
+        <v>18721.85385919</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>11862.74080179</v>
+        <v>14880.73423691</v>
       </c>
       <c r="B52">
-        <v>8680.428304859999</v>
+        <v>7287.00266077</v>
       </c>
       <c r="C52">
-        <v>43064.73971742</v>
+        <v>2630.20044927</v>
       </c>
       <c r="D52">
-        <v>5618.61645326</v>
+        <v>42863.17500161</v>
       </c>
       <c r="E52">
-        <v>23757.24995553</v>
+        <v>4157.27226362</v>
       </c>
       <c r="F52">
-        <v>2910.63831474</v>
+        <v>16110.93627961</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>11013.65871644</v>
+        <v>14738.15996917</v>
       </c>
       <c r="B53">
-        <v>9107.81398778</v>
+        <v>7780.98836143</v>
       </c>
       <c r="C53">
-        <v>44237.95365491</v>
+        <v>2946.51419634</v>
       </c>
       <c r="D53">
-        <v>6178.06675386</v>
+        <v>51914.98684932</v>
       </c>
       <c r="E53">
-        <v>25542.79055408</v>
+        <v>4027.42437383</v>
       </c>
       <c r="F53">
-        <v>3304.20939468</v>
+        <v>16755.78444732</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>10462.06656475</v>
+        <v>14647.57505465</v>
       </c>
       <c r="B54">
-        <v>7975.53586264</v>
+        <v>7605.0564253</v>
       </c>
       <c r="C54">
-        <v>44825.73903759</v>
+        <v>3034.29477818</v>
       </c>
       <c r="D54">
-        <v>5810.61767821</v>
+        <v>52333.06162359</v>
       </c>
       <c r="E54">
-        <v>25941.51569341</v>
+        <v>3921.85441179</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>15452.17456886</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>14082.61558618</v>
+        <v>13141.73984191</v>
       </c>
       <c r="B55">
-        <v>9870.775845059999</v>
+        <v>8977.259618120001</v>
       </c>
       <c r="C55">
-        <v>92473.1411027</v>
+        <v>3207.81797374</v>
       </c>
       <c r="D55">
-        <v>5197.97013528</v>
+        <v>57146.09847649</v>
       </c>
       <c r="E55">
-        <v>43554.96943682</v>
+        <v>5634.73012842</v>
       </c>
       <c r="F55">
-        <v>6550.34746345</v>
+        <v>12412.40327505</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>12211.80326934</v>
+        <v>13172.5351799</v>
       </c>
       <c r="B56">
-        <v>9105.50824157</v>
+        <v>8926.44325378</v>
       </c>
       <c r="C56">
-        <v>93113.79365264</v>
+        <v>3181.35220828</v>
       </c>
       <c r="D56">
-        <v>5861.96579801</v>
+        <v>57748.99468613</v>
       </c>
       <c r="E56">
-        <v>45953.22264591</v>
+        <v>6145.03859308</v>
       </c>
       <c r="F56">
-        <v>6469.92896016</v>
+        <v>13600.36110882</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>12006.93594384</v>
+        <v>12604.62993257</v>
       </c>
       <c r="B57">
-        <v>9222.02844564</v>
+        <v>8820.31744959</v>
       </c>
       <c r="C57">
-        <v>91012.98591032</v>
+        <v>2844.46034128</v>
       </c>
       <c r="D57">
-        <v>5692.16901946</v>
+        <v>57853.96288352</v>
       </c>
       <c r="E57">
-        <v>43470.32711132</v>
+        <v>5902.22813869</v>
       </c>
       <c r="F57">
-        <v>5693.25179842</v>
+        <v>12678.25890219</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>13066.41745075</v>
+        <v>12352.50042986</v>
       </c>
       <c r="B58">
-        <v>9008.59122258</v>
+        <v>9866.81062004</v>
       </c>
       <c r="C58">
-        <v>90927.85691916999</v>
+        <v>2694.0060226</v>
       </c>
       <c r="D58">
-        <v>5857.80850424</v>
+        <v>58231.97633473</v>
       </c>
       <c r="E58">
-        <v>43806.07859952</v>
+        <v>6381.85397702</v>
       </c>
       <c r="F58">
-        <v>5797.04960885</v>
+        <v>12698.60913755</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>13078.15915926</v>
+        <v>13486.71508355</v>
       </c>
       <c r="B59">
-        <v>8661.60407399</v>
+        <v>9391.324280999999</v>
       </c>
       <c r="C59">
-        <v>94933.54022523999</v>
+        <v>3243.32229735</v>
       </c>
       <c r="D59">
-        <v>5979.77307366</v>
+        <v>55749.31294135</v>
       </c>
       <c r="E59">
-        <v>46528.40236138</v>
+        <v>6007.08296164</v>
       </c>
       <c r="F59">
-        <v>6473.53584846</v>
+        <v>12624.81501868</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>12001.94931897</v>
+        <v>13495.86521508</v>
       </c>
       <c r="B60">
-        <v>8910.62335322</v>
+        <v>9140.110433649999</v>
       </c>
       <c r="C60">
-        <v>96782.80135985</v>
+        <v>3247.6921627</v>
       </c>
       <c r="D60">
-        <v>5401.94588337</v>
+        <v>47560.07248171</v>
       </c>
       <c r="E60">
-        <v>46114.52886236</v>
+        <v>6453.76166866</v>
       </c>
       <c r="F60">
-        <v>6274.89673833</v>
+        <v>13237.12978126</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>12244.4370482</v>
+        <v>13536.41061023</v>
       </c>
       <c r="B61">
-        <v>7067.52378742</v>
+        <v>8693.200817479999</v>
       </c>
       <c r="C61">
-        <v>52592.11751205</v>
+        <v>3007.84071859</v>
       </c>
       <c r="D61">
-        <v>6755.24047443</v>
+        <v>50211.09817259</v>
       </c>
       <c r="E61">
-        <v>27186.68625516</v>
+        <v>4546.7097519</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>17581.4377835</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>12865.71125547</v>
+        <v>14075.13349518</v>
       </c>
       <c r="B62">
-        <v>6319.40138386</v>
+        <v>7728.50309279</v>
       </c>
       <c r="C62">
-        <v>55572.15773504</v>
+        <v>2691.13466472</v>
       </c>
       <c r="D62">
-        <v>6601.90245111</v>
+        <v>41899.78680561</v>
       </c>
       <c r="E62">
-        <v>28631.31298439</v>
+        <v>4458.7517843</v>
       </c>
       <c r="F62">
-        <v>3889.21148005</v>
+        <v>18605.36145312</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>11277.55723239</v>
+        <v>13129.2164156</v>
       </c>
       <c r="B63">
-        <v>5440.18156803</v>
+        <v>7078.32022546</v>
       </c>
       <c r="C63">
-        <v>53369.79980569</v>
+        <v>2634.56777772</v>
       </c>
       <c r="D63">
-        <v>6737.37616011</v>
+        <v>49421.96599846</v>
       </c>
       <c r="E63">
-        <v>27208.94355885</v>
+        <v>4262.37479681</v>
       </c>
       <c r="F63">
-        <v>3678.06325047</v>
+        <v>18827.68894223</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>12549.76006137</v>
+        <v>13104.63041613</v>
       </c>
       <c r="B64">
-        <v>7381.73679867</v>
+        <v>7540.93037238</v>
       </c>
       <c r="C64">
-        <v>49824.1278436</v>
+        <v>3046.59585643</v>
       </c>
       <c r="D64">
-        <v>5902.85157037</v>
+        <v>50608.55994597</v>
       </c>
       <c r="E64">
-        <v>24841.1189596</v>
+        <v>3950.9999274</v>
       </c>
       <c r="F64">
-        <v>3046.59585643</v>
+        <v>18358.0183488</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>12162.73291283</v>
+        <v>13641.43524425</v>
       </c>
       <c r="B65">
-        <v>7123.07394657</v>
+        <v>7884.47797279</v>
       </c>
       <c r="C65">
-        <v>52125.99819786</v>
+        <v>2735.71538081</v>
       </c>
       <c r="D65">
-        <v>6957.09715426</v>
+        <v>49649.11375889</v>
       </c>
       <c r="E65">
-        <v>26641.01617981</v>
+        <v>4394.32262697</v>
       </c>
       <c r="F65">
-        <v>3317.21449231</v>
+        <v>18782.07309815</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>11673.40133314</v>
+        <v>12869.79157642</v>
       </c>
       <c r="B66">
-        <v>7340.78493179</v>
+        <v>8156.55944852</v>
       </c>
       <c r="C66">
-        <v>54634.36396414</v>
+        <v>2830.31071429</v>
       </c>
       <c r="D66">
-        <v>6516.71038364</v>
+        <v>50260.24740569</v>
       </c>
       <c r="E66">
-        <v>27130.43127511</v>
+        <v>4423.91674697</v>
       </c>
       <c r="F66">
-        <v>3595.09932372</v>
+        <v>18367.96953292</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>14139.66354436</v>
+        <v>13437.97718786</v>
       </c>
       <c r="B67">
-        <v>6667.15948805</v>
+        <v>7292.52606228</v>
       </c>
       <c r="C67">
-        <v>76516.84679493999</v>
+        <v>3166.70141411</v>
       </c>
       <c r="D67">
-        <v>5166.96317065</v>
+        <v>58794.70988821</v>
       </c>
       <c r="E67">
-        <v>34891.80971783</v>
+        <v>6333.40282822</v>
       </c>
       <c r="F67">
-        <v>4794.47706906</v>
+        <v>17664.0427441</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>13781.71822545</v>
+        <v>12903.94638625</v>
       </c>
       <c r="B68">
-        <v>6189.92561612</v>
+        <v>6425.71007293</v>
       </c>
       <c r="C68">
-        <v>81767.01477186001</v>
+        <v>2911.12096674</v>
       </c>
       <c r="D68">
-        <v>4692.34414045</v>
+        <v>50666.81146882</v>
       </c>
       <c r="E68">
-        <v>38814.55713992</v>
+        <v>6334.66458961</v>
       </c>
       <c r="F68">
-        <v>4942.1355947</v>
+        <v>17676.83076195</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>13841.19977693</v>
+        <v>12393.7383073</v>
       </c>
       <c r="B69">
-        <v>6272.73443866</v>
+        <v>6454.57028052</v>
       </c>
       <c r="C69">
-        <v>74756.20679934999</v>
+        <v>3375.40307767</v>
       </c>
       <c r="D69">
-        <v>4887.89193445</v>
+        <v>48710.32982222</v>
       </c>
       <c r="E69">
-        <v>34820.96161037</v>
+        <v>6665.30718334</v>
       </c>
       <c r="F69">
-        <v>4513.38235287</v>
+        <v>18145.04943786</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>18083.18027546</v>
+        <v>12800.5909552</v>
       </c>
       <c r="B70">
-        <v>7896.34924842</v>
+        <v>7082.54494773</v>
       </c>
       <c r="C70">
-        <v>72640.70217806</v>
+        <v>2855.45368663</v>
       </c>
       <c r="D70">
-        <v>4606.45867946</v>
+        <v>58346.09706182</v>
       </c>
       <c r="E70">
-        <v>33168.13417997</v>
+        <v>6235.08708573</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>18062.7841777</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>16265.64209732</v>
+        <v>13180.84913043</v>
       </c>
       <c r="B71">
-        <v>7687.04760112</v>
+        <v>7318.62297096</v>
       </c>
       <c r="C71">
-        <v>76406.38310691</v>
+        <v>3010.49739231</v>
       </c>
       <c r="D71">
-        <v>4852.62054311</v>
+        <v>52446.56917528</v>
       </c>
       <c r="E71">
-        <v>35946.84513062</v>
+        <v>6851.47682388</v>
       </c>
       <c r="F71">
-        <v>4818.01712481</v>
+        <v>18017.18571198</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>15719.69496343</v>
+        <v>13504.26595325</v>
       </c>
       <c r="B72">
-        <v>7778.1050679</v>
+        <v>7829.45607145</v>
       </c>
       <c r="C72">
-        <v>80980.53259392</v>
+        <v>3042.28496525</v>
       </c>
       <c r="D72">
-        <v>4789.26706552</v>
+        <v>59508.47725354</v>
       </c>
       <c r="E72">
-        <v>37457.93713851</v>
+        <v>6844.35518708</v>
       </c>
       <c r="F72">
-        <v>5061.74177822</v>
+        <v>18255.80575086</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>13818.63797245</v>
+        <v>12303.22873627</v>
       </c>
       <c r="B73">
-        <v>6708.05369705</v>
+        <v>6355.24748425</v>
       </c>
       <c r="C73">
-        <v>105292.52799163</v>
+        <v>3619.22346486</v>
       </c>
       <c r="D73">
-        <v>4387.58330414</v>
+        <v>55447.40325582</v>
       </c>
       <c r="E73">
-        <v>45509.63362416</v>
+        <v>7252.6538913</v>
       </c>
       <c r="F73">
-        <v>5344.18538448</v>
+        <v>16385.36236624</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>12106.89514167</v>
+        <v>12822.01992385</v>
       </c>
       <c r="B74">
-        <v>6321.32039894</v>
+        <v>6413.4016836</v>
       </c>
       <c r="C74">
-        <v>112842.62470008</v>
+        <v>3650.96314377</v>
       </c>
       <c r="D74">
-        <v>4699.73310024</v>
+        <v>55663.73450805</v>
       </c>
       <c r="E74">
-        <v>50418.68886489</v>
+        <v>7749.17824161</v>
       </c>
       <c r="F74">
-        <v>6637.02766064</v>
+        <v>17050.58385322</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>11853.93659236</v>
+        <v>12314.41408802</v>
       </c>
       <c r="B75">
-        <v>6340.4209017</v>
+        <v>7119.69050972</v>
       </c>
       <c r="C75">
-        <v>114483.01111442</v>
+        <v>3797.412557</v>
       </c>
       <c r="D75">
-        <v>5226.48064696</v>
+        <v>56923.3241577</v>
       </c>
       <c r="E75">
-        <v>50051.58306871</v>
+        <v>8233.63076446</v>
       </c>
       <c r="F75">
-        <v>6358.74228746</v>
+        <v>16873.99629299</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>12858.3197426</v>
+        <v>12698.863007</v>
       </c>
       <c r="B76">
-        <v>6365.8295366</v>
+        <v>7038.71434283</v>
       </c>
       <c r="C76">
-        <v>112233.79298283</v>
+        <v>4168.49310213</v>
       </c>
       <c r="D76">
-        <v>5564.02226329</v>
+        <v>55692.24397925</v>
       </c>
       <c r="E76">
-        <v>48354.97234424</v>
+        <v>7382.50758836</v>
       </c>
       <c r="F76">
-        <v>6222.20538468</v>
+        <v>18062.71617667</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>13235.88386311</v>
+        <v>12858.57029565</v>
       </c>
       <c r="B77">
-        <v>6410.87960795</v>
+        <v>7076.9300822</v>
       </c>
       <c r="C77">
-        <v>115396.98328936</v>
+        <v>3674.20589768</v>
       </c>
       <c r="D77">
-        <v>4941.88745662</v>
+        <v>64372.22536898</v>
       </c>
       <c r="E77">
-        <v>51783.98644025</v>
+        <v>7696.96670677</v>
       </c>
       <c r="F77">
-        <v>6433.8865328</v>
+        <v>19103.80004472</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>12458.50669926</v>
+        <v>11539.92322241</v>
       </c>
       <c r="B78">
-        <v>6469.66841676</v>
+        <v>7000.5607684</v>
       </c>
       <c r="C78">
-        <v>114677.4049039</v>
+        <v>3365.81093987</v>
       </c>
       <c r="D78">
-        <v>5095.86803314</v>
+        <v>63073.73693476</v>
       </c>
       <c r="E78">
-        <v>50064.54584444</v>
+        <v>7779.43573165</v>
       </c>
       <c r="F78">
-        <v>6387.00754622</v>
+        <v>18138.82201424</v>
       </c>
     </row>
   </sheetData>
